--- a/biology/Écologie/Miguel_Altieri/Miguel_Altieri.xlsx
+++ b/biology/Écologie/Miguel_Altieri/Miguel_Altieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miguel Altieri, né le 3 septembre 1950 à Santiago du Chili[1], est un professeur d'agroécologie de nationalité chilienne et américaine, depuis 1981 en poste à l'université de Berkeley[2], en Californie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miguel Altieri, né le 3 septembre 1950 à Santiago du Chili, est un professeur d'agroécologie de nationalité chilienne et américaine, depuis 1981 en poste à l'université de Berkeley, en Californie.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études universitaires au Chili et en Colombie, il obtient en 1979 son doctorat en entomologie à l'Université de Floride[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études universitaires au Chili et en Colombie, il obtient en 1979 son doctorat en entomologie à l'Université de Floride.
 En 1986 il participe au National Forum on BioDiversity à Washington et contribue au livre qui en est issu par un chapitre écrit en collaboration avec Laura C. Merrick et intitulé Agroecology and In Situ Conservation of Native Crop Diversity in the Third World.
-En 1988, Miguel Altieri, professeur à l'université de Berkeley, présente l'agroécologie comme la base scientifique d'une agriculture alternative[3].
+En 1988, Miguel Altieri, professeur à l'université de Berkeley, présente l'agroécologie comme la base scientifique d'une agriculture alternative.
 L’agroécologie est une discipline scientifique émergente, ayant pour objet l'étude des agroécosystèmes.
 Miguel Altieri, pionnier de cette discipline, est régulièrement sollicité par le Programme des Nations unies pour l'environnement (PNUE).
-En 1995, il en donne la définition suivante : « L'agro-écologie est la science de la gestion des ressources naturelles au bénéfice des plus démunis confrontés à un environnement défavorable. Cette science, de nature biophysique au sens large, porte ainsi sur l'accumulation de connaissances sur les fonctionnements des écosystèmes (cultivés). Elle conduit à la conception, à la création et à l'adaptation sous la forme participative de systèmes de culture complexes productifs et par suite attractifs malgré un milieu défavorable et malgré un recours très faible aux intrants. »[4].
+En 1995, il en donne la définition suivante : « L'agro-écologie est la science de la gestion des ressources naturelles au bénéfice des plus démunis confrontés à un environnement défavorable. Cette science, de nature biophysique au sens large, porte ainsi sur l'accumulation de connaissances sur les fonctionnements des écosystèmes (cultivés). Elle conduit à la conception, à la création et à l'adaptation sous la forme participative de systèmes de culture complexes productifs et par suite attractifs malgré un milieu défavorable et malgré un recours très faible aux intrants. ».
 De 1996 à 2000, il préside le comité des ONG du  Groupe consultatif pour la recherche agricole internationale (CGIAR).
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Altieri, M. A. 1986 (1983 pour l'édition originale). L'Agroécologie : bases scientifiques d'une agriculture alternative.
 Altieri, M. A. et M. Z. Liebman (eds.). 1988. Weed Management in Agroecosystems: Ecological Approaches. Book for CRC Uniscience Series. CRC Press, Boca Raton, Floride. 354 p.
